--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55F1554-6E59-470D-9C4D-8E37405A1CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A5BAA-ED05-498F-BE58-B868CAFE8942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
+    <sheet name="Joseph Pak (Poducer and Design)" sheetId="2" r:id="rId2"/>
+    <sheet name="Wyatt(Artist)" sheetId="3" r:id="rId3"/>
+    <sheet name="Emanuel(designer)" sheetId="4" r:id="rId4"/>
+    <sheet name="Raphael Brown(Programmer)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Footsteps</t>
   </si>
@@ -519,16 +523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7265625" customWidth="1"/>
+    <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -548,112 +552,112 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -662,4 +666,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C689EB-A68B-4BC4-B6BF-F1BC87CF5393}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A5BAA-ED05-498F-BE58-B868CAFE8942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AE49A-C544-4745-B54A-EF274E49CFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12264" windowHeight="12336" tabRatio="731" firstSheet="2" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Footsteps</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>Unity/Level Design</t>
+  </si>
+  <si>
+    <t>UI &amp; Menu</t>
+  </si>
+  <si>
+    <t>Player UI</t>
+  </si>
+  <si>
+    <t>Health Bar</t>
+  </si>
+  <si>
+    <t>Enegry Bar</t>
+  </si>
+  <si>
+    <t>Menu icons</t>
+  </si>
+  <si>
+    <t>Menu Border</t>
+  </si>
+  <si>
+    <t>Redesign Background</t>
+  </si>
+  <si>
+    <t>Pause/Main Menu</t>
   </si>
 </sst>
 </file>
@@ -203,10 +227,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,12 +557,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -552,112 +582,112 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -672,16 +702,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -714,9 +744,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -744,15 +774,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -772,8 +805,58 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -785,9 +868,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AE49A-C544-4745-B54A-EF274E49CFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99481A-4737-47BE-B8A9-294AB4174EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="12264" windowHeight="12336" tabRatio="731" firstSheet="2" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="5340" yWindow="1290" windowWidth="21600" windowHeight="11385" tabRatio="731" firstSheet="1" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Footsteps</t>
   </si>
@@ -170,12 +170,60 @@
   <si>
     <t>Pause/Main Menu</t>
   </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>respawn</t>
+  </si>
+  <si>
+    <t>Platfroms</t>
+  </si>
+  <si>
+    <t>Simple world Layout</t>
+  </si>
+  <si>
+    <t>First Area Layout</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>Background art</t>
+  </si>
+  <si>
+    <t>Platform layout</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Level tile art</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +254,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF11734B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFB10202"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF473821"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,11 +300,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,6 +328,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,12 +667,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -582,112 +692,112 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -700,18 +810,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -731,8 +844,169 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -744,9 +1018,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -776,16 +1050,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -805,53 +1079,53 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
@@ -868,9 +1142,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Total-Let-Down-Games.v2\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99481A-4737-47BE-B8A9-294AB4174EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B47D70-2CE1-4372-93F6-2C1050C64FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1290" windowWidth="21600" windowHeight="11385" tabRatio="731" firstSheet="1" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="731" firstSheet="1" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>Footsteps</t>
   </si>
@@ -50,7 +39,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -61,7 +50,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -218,16 +207,60 @@
   <si>
     <t>Med</t>
   </si>
+  <si>
+    <t>Coding</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Running Animation</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Platform Art</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Game Art</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Menu Escape</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Not Started</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Tutorial Drawings</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -235,7 +268,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -243,14 +276,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -282,6 +315,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -341,12 +381,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,12 +708,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -692,117 +733,118 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -812,19 +854,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="37.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -844,7 +886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -864,7 +906,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -884,7 +926,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -904,7 +946,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -924,7 +966,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -944,7 +986,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -964,7 +1006,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -984,7 +1026,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1005,6 +1047,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1012,15 +1055,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1040,7 +1083,88 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45181</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1054,12 +1178,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1079,56 +1203,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -1142,9 +1267,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1165,6 +1290,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Total-Let-Down-Games.v2\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B47D70-2CE1-4372-93F6-2C1050C64FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48627C87-543C-4E21-AF7A-8BA2C5427500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="731" firstSheet="1" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" tabRatio="731" firstSheet="2" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
   <si>
     <t>Footsteps</t>
   </si>
@@ -39,7 +39,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -50,7 +50,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,16 +251,22 @@
     <t>Low</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>Emanuel</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +274,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -276,14 +282,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -318,7 +324,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -387,7 +393,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,12 +714,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -733,112 +739,112 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -855,18 +861,18 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="37.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -886,7 +892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -906,7 +912,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -926,7 +932,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -946,7 +952,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -966,7 +972,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -986,7 +992,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1057,13 +1063,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1083,12 +1089,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>53</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>61</v>
       </c>
@@ -1130,12 +1136,12 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -1174,16 +1180,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1203,53 +1210,127 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
@@ -1267,9 +1348,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>18</v>
       </c>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48627C87-543C-4E21-AF7A-8BA2C5427500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04756DC-3D5E-4BF3-9379-C1CC0F8C7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" tabRatio="731" firstSheet="2" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>Footsteps</t>
   </si>
@@ -209,60 +209,90 @@
   </si>
   <si>
     <t>Coding</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Running Animation</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Platform Art</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Game Art</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Menu Escape</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Volume</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>High</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Not Started</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Tutorial Drawings</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Low</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Emanuel</t>
   </si>
   <si>
     <t>N/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rework first level layout </t>
+  </si>
+  <si>
+    <t>GDD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rework The GDD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,33 +330,44 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF11734B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFB10202"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF473821"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF11734B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB10202"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF473821"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -338,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -361,11 +402,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,25 +427,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,7 +778,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
@@ -739,12 +803,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +914,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -858,21 +922,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -888,172 +952,212 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="13">
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="13">
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="13">
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="13">
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="13">
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="13">
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="13">
         <v>44996</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="14">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="14">
+        <v>45178</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1063,11 +1167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1104,7 +1208,7 @@
       <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>45199</v>
       </c>
     </row>
@@ -1118,7 +1222,7 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>45192</v>
       </c>
     </row>
@@ -1132,7 +1236,7 @@
       <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>45201</v>
       </c>
     </row>
@@ -1151,7 +1255,7 @@
       <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>45181</v>
       </c>
     </row>
@@ -1165,12 +1269,12 @@
       <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>45181</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1180,14 +1284,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1334,7 +1438,7 @@
       <c r="A15" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -1348,7 +1452,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1371,7 +1475,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04756DC-3D5E-4BF3-9379-C1CC0F8C7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D3D804-A2AD-42E3-8E79-1768DBDFE9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
   <si>
     <t>Footsteps</t>
   </si>
@@ -286,6 +286,18 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>Enemy Art</t>
+  </si>
+  <si>
+    <t>Outermost Background</t>
+  </si>
+  <si>
+    <t>Fullscreen toggle</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -417,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -458,6 +470,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1165,13 +1178,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1240,6 +1256,34 @@
         <v>45201</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="16">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="16">
+        <v>45201</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>52</v>
@@ -1271,6 +1315,20 @@
       </c>
       <c r="F13" s="5">
         <v>45181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="16">
+        <v>45201</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D3D804-A2AD-42E3-8E79-1768DBDFE9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AA175B-0AA0-4A1C-8474-C52CCE594672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>Footsteps</t>
   </si>
@@ -124,16 +124,7 @@
     <t>Due Date</t>
   </si>
   <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
     <t>Sound</t>
-  </si>
-  <si>
-    <t>Unity/Level Design</t>
   </si>
   <si>
     <t>UI &amp; Menu</t>
@@ -298,6 +289,12 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Button Sound</t>
   </si>
 </sst>
 </file>
@@ -785,93 +782,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
+    </row>
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -913,17 +898,12 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -941,15 +921,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -969,161 +949,161 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F2" s="13">
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13">
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="13">
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F5" s="13">
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="F6" s="13">
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="13">
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="13">
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="13">
         <v>44996</v>
@@ -1131,19 +1111,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" s="14">
         <v>45180</v>
@@ -1151,19 +1131,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="14">
         <v>45178</v>
@@ -1180,13 +1160,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1211,18 +1191,18 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5">
         <v>45199</v>
@@ -1230,13 +1210,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5">
         <v>45192</v>
@@ -1244,13 +1224,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5">
         <v>45201</v>
@@ -1258,13 +1238,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="16">
         <v>45194</v>
@@ -1272,13 +1252,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="16">
         <v>45201</v>
@@ -1286,18 +1266,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5">
         <v>45181</v>
@@ -1305,13 +1285,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
       </c>
       <c r="F13" s="5">
         <v>45181</v>
@@ -1319,13 +1299,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="16">
         <v>45201</v>
@@ -1346,10 +1326,10 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1374,107 +1354,107 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1510,7 +1490,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AA175B-0AA0-4A1C-8474-C52CCE594672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3054E3-F649-4EF0-826E-53EC3AC8AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>Footsteps</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Button Sound</t>
+  </si>
+  <si>
+    <t>Draft Done</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -785,12 +791,13 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -815,16 +822,25 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A9" t="s">
@@ -835,11 +851,17 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
@@ -861,49 +883,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3054E3-F649-4EF0-826E-53EC3AC8AF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE43173-A348-43B3-8176-091AC130D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
   <si>
     <t>Footsteps</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">Walker rifle </t>
-  </si>
-  <si>
-    <t>Walker melee</t>
   </si>
   <si>
     <t>Walker death</t>
@@ -788,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -802,15 +799,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5">
@@ -823,15 +820,15 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -839,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
@@ -849,18 +846,18 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -870,17 +867,17 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -892,19 +889,25 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>8</v>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -913,22 +916,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>16</v>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -956,39 +954,39 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="13">
         <v>45033</v>
@@ -996,19 +994,19 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="13">
         <v>44998</v>
@@ -1016,19 +1014,19 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="13">
         <v>44990</v>
@@ -1036,19 +1034,19 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="F5" s="13">
         <v>44991</v>
@@ -1056,19 +1054,19 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="13">
         <v>45033</v>
@@ -1076,19 +1074,19 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="13">
         <v>45010</v>
@@ -1096,19 +1094,19 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="13">
         <v>44995</v>
@@ -1116,19 +1114,19 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="13">
         <v>44996</v>
@@ -1136,19 +1134,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="14">
         <v>45180</v>
@@ -1156,19 +1154,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="14">
         <v>45178</v>
@@ -1196,38 +1194,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="5">
         <v>45199</v>
@@ -1235,13 +1233,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
       <c r="F4" s="5">
         <v>45192</v>
@@ -1249,13 +1247,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="5">
         <v>45201</v>
@@ -1263,13 +1261,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="16">
         <v>45194</v>
@@ -1277,13 +1275,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="16">
         <v>45201</v>
@@ -1291,18 +1289,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="5">
         <v>45181</v>
@@ -1310,13 +1308,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
       </c>
       <c r="F13" s="5">
         <v>45181</v>
@@ -1324,13 +1322,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="16">
         <v>45201</v>
@@ -1359,127 +1357,127 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1519,22 +1517,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE43173-A348-43B3-8176-091AC130D345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96459546-365A-4BDE-B867-DC0AC12B4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>Footsteps</t>
   </si>
@@ -298,6 +298,33 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>VFX</t>
+  </si>
+  <si>
+    <t>Particle Effect</t>
+  </si>
+  <si>
+    <t>Shader/ Particle Effect</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Lava Pool/ Shader</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Design a Resource Room</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Design a Save Room</t>
   </si>
 </sst>
 </file>
@@ -429,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,6 +498,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,14 +817,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -805,12 +835,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -839,7 +869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -944,12 +974,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
@@ -1187,9 +1217,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1345,14 +1375,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1481,22 +1511,97 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
+      <c r="A9" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -1513,7 +1618,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Desktop\work Game Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96459546-365A-4BDE-B867-DC0AC12B4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0056C1-FFCF-46C0-A968-891C4E8556E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="7095" yWindow="1125" windowWidth="16740" windowHeight="13635" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
   <si>
     <t>Footsteps</t>
   </si>
@@ -157,9 +157,6 @@
     <t>respawn</t>
   </si>
   <si>
-    <t>Platfroms</t>
-  </si>
-  <si>
     <t>Simple world Layout</t>
   </si>
   <si>
@@ -326,12 +323,78 @@
   <si>
     <t>Design a Save Room</t>
   </si>
+  <si>
+    <t>Mini Map layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 1 minimap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platfroms still </t>
+  </si>
+  <si>
+    <t>Platform moving</t>
+  </si>
+  <si>
+    <t>Area 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 1 </t>
+  </si>
+  <si>
+    <t>Area 2 minimap</t>
+  </si>
+  <si>
+    <t>Area 3 minimap</t>
+  </si>
+  <si>
+    <t>Area 4 minimap</t>
+  </si>
+  <si>
+    <t>Area 5 minimap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 2 </t>
+  </si>
+  <si>
+    <t>Area 3</t>
+  </si>
+  <si>
+    <t>Area 4</t>
+  </si>
+  <si>
+    <t>Door with a lock and a key </t>
+  </si>
+  <si>
+    <t>Lava – on the floor and on walls (are like spikes)</t>
+  </si>
+  <si>
+    <t>Magnetic hooks (use magnetic grab to latch on) </t>
+  </si>
+  <si>
+    <t>Magnetic box (use magnetic grab to pick up) </t>
+  </si>
+  <si>
+    <t>Vines </t>
+  </si>
+  <si>
+    <t>Spikes (damage players and push them back)</t>
+  </si>
+  <si>
+    <t>Crushers (fall on players and hurt them a lot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saw (likes spikes but moves) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,13 +440,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF11734B"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -405,6 +461,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,6 +549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -480,9 +559,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,12 +570,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,10 +906,10 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -835,12 +920,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -858,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -866,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -879,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -887,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -920,7 +1005,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -928,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -948,15 +1033,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -968,21 +1053,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +1087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -1010,153 +1095,153 @@
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="13">
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="13">
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="13">
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F5" s="13">
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="13">
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="13">
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="13">
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="13">
         <v>44996</v>
@@ -1164,19 +1249,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="F10" s="14">
         <v>45180</v>
@@ -1184,23 +1269,194 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
       <c r="F11" s="14">
-        <v>45178</v>
-      </c>
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="14">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="B29" s="19"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -1217,9 +1473,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1244,18 +1500,18 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5">
         <v>45199</v>
@@ -1263,13 +1519,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
       </c>
       <c r="F4" s="5">
         <v>45192</v>
@@ -1277,13 +1533,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="5">
         <v>45201</v>
@@ -1291,46 +1547,46 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="16">
+        <v>44</v>
+      </c>
+      <c r="F6" s="15">
         <v>45194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="16">
+        <v>44</v>
+      </c>
+      <c r="F7" s="15">
         <v>45201</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="5">
         <v>45181</v>
@@ -1338,13 +1594,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="5">
         <v>45181</v>
@@ -1352,15 +1608,15 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="16">
+        <v>44</v>
+      </c>
+      <c r="F14" s="15">
         <v>45201</v>
       </c>
     </row>
@@ -1375,14 +1631,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1418,16 +1674,16 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1438,16 +1694,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1458,16 +1714,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1478,16 +1734,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1498,109 +1754,109 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
-        <v>73</v>
+      <c r="A9" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
       <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1612,13 +1868,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C689EB-A68B-4BC4-B6BF-F1BC87CF5393}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1638,6 +1898,46 @@
       </c>
       <c r="F1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Desktop\work Game Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0056C1-FFCF-46C0-A968-891C4E8556E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0B5B8-FE4B-422C-91AB-DC2413D04270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1125" windowWidth="16740" windowHeight="13635" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
   <si>
     <t>Footsteps</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t xml:space="preserve">Saw (likes spikes but moves) </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Enemy hit</t>
+  </si>
+  <si>
+    <t>Draft Updated</t>
   </si>
 </sst>
 </file>
@@ -900,16 +909,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -920,12 +929,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -954,7 +963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -972,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -984,28 +993,40 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1013,35 +1034,43 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="s">
-        <v>70</v>
+      <c r="B28" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1055,19 +1084,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -1107,7 +1136,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1147,7 +1176,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1196,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1187,7 +1216,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1236,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
@@ -1227,7 +1256,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -1295,8 +1324,8 @@
     <row r="13" spans="1:6">
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1307,7 +1336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1329,7 +1358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1340,7 +1369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1351,7 +1380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1362,7 +1391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1373,7 +1402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1395,7 +1424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1406,7 +1435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1417,7 +1446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1428,7 +1457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="15" thickBot="1">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1439,20 +1468,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+    <row r="29" spans="1:3" ht="15" thickBot="1">
       <c r="B29" s="19"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+    <row r="30" spans="1:3" ht="15" thickBot="1">
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+    <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+    <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="3:3">
@@ -1473,9 +1502,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1635,10 +1664,10 @@
       <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1874,10 +1903,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Desktop\Game 490 temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B0B5B8-FE4B-422C-91AB-DC2413D04270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C0304-3C16-49AC-B5F0-B542EC5994B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="17355" windowHeight="13635" tabRatio="731" firstSheet="2" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="125">
   <si>
     <t>Footsteps</t>
   </si>
@@ -193,10 +193,6 @@
     <t>Med</t>
   </si>
   <si>
-    <t>Coding</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Running Animation</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -324,9 +320,6 @@
     <t>Design a Save Room</t>
   </si>
   <si>
-    <t>Mini Map layout</t>
-  </si>
-  <si>
     <t xml:space="preserve">Area 1 minimap </t>
   </si>
   <si>
@@ -366,9 +359,6 @@
     <t>Area 4</t>
   </si>
   <si>
-    <t>Door with a lock and a key </t>
-  </si>
-  <si>
     <t>Lava – on the floor and on walls (are like spikes)</t>
   </si>
   <si>
@@ -390,20 +380,105 @@
     <t xml:space="preserve">Saw (likes spikes but moves) </t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Enemy hit</t>
-  </si>
-  <si>
-    <t>Draft Updated</t>
+    <t xml:space="preserve">One-way Platforms </t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Raphael Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door with a lock and a key (check for fix) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claw wall climb. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic grab shoot </t>
+  </si>
+  <si>
+    <t>Magnetic grab box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water pump jump </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Pump shoot </t>
+  </si>
+  <si>
+    <t>Saving System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water resource (used for pump) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy resource (use for combat) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save rooms that track progress and what the player has </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check point system(For falling into pits and lava) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magnetic grab button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water pump button </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dash </t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walk </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shoot player.</t>
+    </r>
+  </si>
+  <si>
+    <t>Attack player – melee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawner (when player leaves room) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP </t>
+  </si>
+  <si>
+    <t>Enemy AI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,34 +524,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF11734B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB10202"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF473821"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,6 +537,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,13 +602,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -561,38 +619,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,16 +959,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -929,12 +979,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -944,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -952,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -960,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -973,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -981,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -993,40 +1043,28 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1034,43 +1072,35 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
+      <c r="A22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1082,21 +1112,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1112,380 +1142,732 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="15">
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="15">
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="15">
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="15">
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="15">
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="15">
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="15">
         <v>44996</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="16">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="14">
-        <v>45180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <v>45182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="F12" s="14">
-        <v>45184</v>
-      </c>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+        <v>80</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+        <v>86</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
+        <v>87</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+        <v>88</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+        <v>89</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>83</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+        <v>85</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1">
+        <v>92</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1">
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1">
-      <c r="B29" s="19"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1">
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1">
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B29" s="11"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="4">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4">
+        <v>44995</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="4">
+        <v>45188</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -1498,13 +1880,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1529,54 +1914,54 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="5">
+        <v>54</v>
+      </c>
+      <c r="F3" s="4">
         <v>45199</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>45192</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="5">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4">
         <v>45201</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
@@ -1584,68 +1969,68 @@
       <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <v>45194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <v>45201</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>45181</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>45181</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="9">
         <v>45201</v>
       </c>
     </row>
@@ -1661,13 +2046,13 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1696,43 +2081,43 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1743,16 +2128,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1763,16 +2148,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1783,109 +2168,109 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16" t="s">
-        <v>72</v>
+      <c r="A9" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1897,19 +2282,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C689EB-A68B-4BC4-B6BF-F1BC87CF5393}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="47.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1925,49 +2314,222 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="15">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="20" t="s">
+      <c r="C5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="20" t="s">
+      <c r="C6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="20" t="s">
+      <c r="C7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="20" t="s">
+      <c r="C8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Desktop\Game 490 temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C0304-3C16-49AC-B5F0-B542EC5994B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90BB74-BA4C-40C4-B2D7-F21EF03CCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="17355" windowHeight="13635" tabRatio="731" firstSheet="2" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="125">
   <si>
     <t>Footsteps</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Death</t>
   </si>
   <si>
-    <t>Abilities(Dash, Double Jump, Magnetic Hook, Electric Run, Invisible Dash)</t>
-  </si>
-  <si>
     <t>Enemies</t>
   </si>
   <si>
@@ -473,12 +470,15 @@
   <si>
     <t>Enemy AI</t>
   </si>
+  <si>
+    <t>Abilities(Dash, Double Jump, Magnetic Grab, Claw Grip, Water Pump)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,13 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -602,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -635,14 +628,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,30 +953,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -994,15 +986,15 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1010,97 +1002,112 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1118,379 +1125,379 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="14">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="14">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="14">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="14">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="14">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="15">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="15">
-        <v>44998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="15">
-        <v>44990</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="15">
-        <v>44991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="15">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="15">
-        <v>45010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="15">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>44996</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>45180</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>45182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="F12" s="16"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="4">
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
         <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
       </c>
       <c r="F21" s="4">
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="4">
         <v>45192</v>
@@ -1498,372 +1505,372 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="4">
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
         <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>43</v>
       </c>
       <c r="F32" s="4">
         <v>44995</v>
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
         <v>42</v>
-      </c>
-      <c r="E39" t="s">
-        <v>43</v>
       </c>
       <c r="F39" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
         <v>42</v>
-      </c>
-      <c r="E40" t="s">
-        <v>43</v>
       </c>
       <c r="F40" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="4">
         <v>45188</v>
@@ -1880,52 +1887,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4">
         <v>45199</v>
@@ -1933,13 +1940,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="4">
         <v>45192</v>
@@ -1947,13 +1954,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4">
         <v>45201</v>
@@ -1961,13 +1968,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9">
         <v>45194</v>
@@ -1975,13 +1982,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="9">
         <v>45201</v>
@@ -1989,18 +1996,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -2008,13 +2015,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -2022,13 +2029,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="9">
         <v>45201</v>
@@ -2049,180 +2056,180 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2230,47 +2237,47 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
       <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2282,254 +2289,245 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C689EB-A68B-4BC4-B6BF-F1BC87CF5393}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>45033</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="14"/>
+      <c r="B26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90BB74-BA4C-40C4-B2D7-F21EF03CCC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB5CE8-874F-450E-85EB-3B6EF2BB3FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="126">
   <si>
     <t>Footsteps</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>Abilities(Dash, Double Jump, Magnetic Grab, Claw Grip, Water Pump)</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -953,14 +956,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -971,12 +974,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -1125,15 +1128,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1359,11 +1362,11 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1603,14 +1606,14 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1630,10 +1633,10 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1654,7 +1657,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1754,8 +1757,8 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1795,8 +1798,8 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1887,16 +1890,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2007,7 +2010,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -2021,7 +2024,7 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -2056,10 +2059,10 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2295,17 +2298,17 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" t="s">
         <v>101</v>
       </c>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB5CE8-874F-450E-85EB-3B6EF2BB3FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA046002-BE1D-4289-B8D2-962D62AF2FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="130">
   <si>
     <t>Footsteps</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Menu Border</t>
   </si>
   <si>
-    <t>Redesign Background</t>
-  </si>
-  <si>
     <t>Pause/Main Menu</t>
   </si>
   <si>
@@ -475,6 +472,21 @@
   </si>
   <si>
     <t>Finished</t>
+  </si>
+  <si>
+    <t>Menu Buttons Fix</t>
+  </si>
+  <si>
+    <t>Asset Packs</t>
+  </si>
+  <si>
+    <t>Forest Pack</t>
+  </si>
+  <si>
+    <t>Sci-fi Pack</t>
+  </si>
+  <si>
+    <t>Find &amp; Import pack</t>
   </si>
 </sst>
 </file>
@@ -960,10 +972,10 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -974,12 +986,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -997,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1005,12 +1017,12 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1018,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1026,7 +1038,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1039,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1047,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1055,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1063,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1071,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1079,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1097,20 +1109,20 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1128,15 +1140,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1156,161 +1168,161 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="14">
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="14">
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="14">
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="14">
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="14">
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="14">
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="14">
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="14">
         <v>44996</v>
@@ -1318,19 +1330,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="F10" s="15">
         <v>45180</v>
@@ -1338,19 +1350,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="15">
         <v>45182</v>
@@ -1362,145 +1374,145 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4">
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
         <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>42</v>
       </c>
       <c r="F21" s="4">
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="4">
         <v>45192</v>
@@ -1508,372 +1520,372 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="4">
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
         <v>41</v>
-      </c>
-      <c r="E32" t="s">
-        <v>42</v>
       </c>
       <c r="F32" s="4">
         <v>44995</v>
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
         <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
       </c>
       <c r="F39" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
         <v>41</v>
-      </c>
-      <c r="E40" t="s">
-        <v>42</v>
       </c>
       <c r="F40" s="4">
         <v>44995</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="4">
         <v>45195</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" s="4">
         <v>45188</v>
@@ -1890,16 +1902,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1924,18 +1936,18 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4">
         <v>45199</v>
@@ -1943,13 +1955,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
       </c>
       <c r="F4" s="4">
         <v>45192</v>
@@ -1957,13 +1969,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4">
         <v>45201</v>
@@ -1971,13 +1983,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="9">
         <v>45194</v>
@@ -1985,13 +1997,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="9">
         <v>45201</v>
@@ -1999,18 +2011,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -2018,13 +2030,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -2032,13 +2044,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="9">
         <v>45201</v>
@@ -2053,16 +2065,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2098,16 +2111,16 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2118,121 +2131,121 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2240,47 +2253,92 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
       <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2298,17 +2356,17 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2328,21 +2386,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="14">
         <v>45033</v>
@@ -2350,128 +2408,128 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2479,57 +2537,57 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA046002-BE1D-4289-B8D2-962D62AF2FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96771290-4CFC-4161-91A4-956111DF3ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="131">
   <si>
     <t>Footsteps</t>
   </si>
@@ -124,9 +124,6 @@
     <t>UI &amp; Menu</t>
   </si>
   <si>
-    <t>Player UI</t>
-  </si>
-  <si>
     <t>Health Bar</t>
   </si>
   <si>
@@ -487,6 +484,12 @@
   </si>
   <si>
     <t>Find &amp; Import pack</t>
+  </si>
+  <si>
+    <t>Transferred to Our Artist</t>
+  </si>
+  <si>
+    <t>Player UI/ Looks</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1009,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1017,12 +1020,12 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1030,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1038,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1051,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1059,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1067,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1075,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1083,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1091,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1109,20 +1112,20 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1170,19 +1173,19 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="14">
         <v>45033</v>
@@ -1190,19 +1193,19 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="14">
         <v>44998</v>
@@ -1210,19 +1213,19 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="14">
         <v>44990</v>
@@ -1230,19 +1233,19 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="14">
         <v>44991</v>
@@ -1250,19 +1253,19 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="14">
         <v>45033</v>
@@ -1270,19 +1273,19 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="14">
         <v>45010</v>
@@ -1290,19 +1293,19 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="14">
         <v>44995</v>
@@ -1310,19 +1313,19 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="14">
         <v>44996</v>
@@ -1330,19 +1333,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="F10" s="15">
         <v>45180</v>
@@ -1350,19 +1353,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="15">
         <v>45182</v>
@@ -1380,19 +1383,19 @@
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4">
         <v>45184</v>
@@ -1400,19 +1403,19 @@
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="4">
         <v>45188</v>
@@ -1420,19 +1423,19 @@
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="4">
         <v>45188</v>
@@ -1440,19 +1443,19 @@
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="4">
         <v>45188</v>
@@ -1460,19 +1463,19 @@
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="4">
         <v>45188</v>
@@ -1480,19 +1483,19 @@
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
       </c>
       <c r="F21" s="4">
         <v>45183</v>
@@ -1500,19 +1503,19 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4">
         <v>45192</v>
@@ -1520,19 +1523,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4">
         <v>45188</v>
@@ -1540,19 +1543,19 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4">
         <v>45188</v>
@@ -1560,19 +1563,19 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4">
         <v>45195</v>
@@ -1580,19 +1583,19 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="4">
         <v>45195</v>
@@ -1600,19 +1603,19 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="4">
         <v>45195</v>
@@ -1627,19 +1630,19 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="4">
         <v>45180</v>
@@ -1650,19 +1653,19 @@
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
         <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
       </c>
       <c r="F32" s="4">
         <v>44995</v>
@@ -1671,19 +1674,19 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="4">
         <v>45188</v>
@@ -1691,19 +1694,19 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="4">
         <v>45188</v>
@@ -1711,19 +1714,19 @@
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="4">
         <v>45195</v>
@@ -1731,19 +1734,19 @@
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F36" s="4">
         <v>45195</v>
@@ -1751,19 +1754,19 @@
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="4">
         <v>45195</v>
@@ -1772,19 +1775,19 @@
     <row r="38" spans="1:6" ht="15" thickBot="1"/>
     <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
         <v>40</v>
-      </c>
-      <c r="E39" t="s">
-        <v>41</v>
       </c>
       <c r="F39" s="4">
         <v>44995</v>
@@ -1792,19 +1795,19 @@
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
         <v>40</v>
-      </c>
-      <c r="E40" t="s">
-        <v>41</v>
       </c>
       <c r="F40" s="4">
         <v>44995</v>
@@ -1813,19 +1816,19 @@
     <row r="41" spans="1:6" ht="15" thickBot="1"/>
     <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="4">
         <v>45188</v>
@@ -1833,19 +1836,19 @@
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F43" s="4">
         <v>45195</v>
@@ -1853,19 +1856,19 @@
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="4">
         <v>45188</v>
@@ -1873,19 +1876,19 @@
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" s="4">
         <v>45188</v>
@@ -1936,18 +1939,18 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4">
         <v>45199</v>
@@ -1955,13 +1958,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
       </c>
       <c r="F4" s="4">
         <v>45192</v>
@@ -1969,13 +1972,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4">
         <v>45201</v>
@@ -1983,13 +1986,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="9">
         <v>45194</v>
@@ -1997,13 +2000,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9">
         <v>45201</v>
@@ -2011,18 +2014,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -2030,13 +2033,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -2044,13 +2047,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="9">
         <v>45201</v>
@@ -2065,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2076,9 +2079,10 @@
     <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2094,251 +2098,215 @@
       <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2388,19 +2356,19 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="14">
         <v>45033</v>
@@ -2408,128 +2376,128 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2537,57 +2505,57 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96771290-4CFC-4161-91A4-956111DF3ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154D528-F17C-44E4-9C7B-86EC1AA5AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="14040" windowHeight="13635" tabRatio="731" firstSheet="2" activeTab="4" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
   <si>
     <t>Footsteps</t>
   </si>
@@ -323,12 +323,6 @@
     <t>Platform moving</t>
   </si>
   <si>
-    <t>Area 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area 1 </t>
-  </si>
-  <si>
     <t>Area 2 minimap</t>
   </si>
   <si>
@@ -342,12 +336,6 @@
   </si>
   <si>
     <t xml:space="preserve">Area 2 </t>
-  </si>
-  <si>
-    <t>Area 3</t>
-  </si>
-  <si>
-    <t>Area 4</t>
   </si>
   <si>
     <t>Lava – on the floor and on walls (are like spikes)</t>
@@ -490,6 +478,39 @@
   </si>
   <si>
     <t>Player UI/ Looks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 1 skeleton </t>
+  </si>
+  <si>
+    <t>Area 2 skeleton</t>
+  </si>
+  <si>
+    <t>Area 3 skeleton</t>
+  </si>
+  <si>
+    <t>Area 4 skeleton</t>
+  </si>
+  <si>
+    <t>Area 5 skeleton</t>
+  </si>
+  <si>
+    <t>Fix sticking to walls (ground check need to be changed.)</t>
+  </si>
+  <si>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crates (breakable tiles but respawn when player leave room) </t>
   </si>
 </sst>
 </file>
@@ -975,10 +996,10 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -989,12 +1010,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1046,7 @@
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1139,19 +1160,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1191,7 +1212,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1232,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1252,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1272,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1292,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1312,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1332,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1377,11 +1398,11 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1395,18 +1416,18 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4">
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -1415,18 +1436,18 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>37</v>
@@ -1441,12 +1462,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>37</v>
@@ -1461,12 +1482,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>37</v>
@@ -1481,7 +1502,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1522,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1512,7 +1533,7 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -1526,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -1535,18 +1556,18 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1561,12 +1582,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>37</v>
@@ -1581,12 +1602,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>37</v>
@@ -1601,12 +1622,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>37</v>
@@ -1621,19 +1642,19 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
@@ -1648,17 +1669,17 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D32" t="s">
@@ -1668,18 +1689,18 @@
         <v>40</v>
       </c>
       <c r="F32" s="4">
-        <v>44995</v>
+        <v>45200</v>
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
@@ -1689,15 +1710,15 @@
         <v>41</v>
       </c>
       <c r="F33" s="4">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>37</v>
@@ -1709,15 +1730,15 @@
         <v>41</v>
       </c>
       <c r="F34" s="4">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>37</v>
@@ -1729,15 +1750,15 @@
         <v>41</v>
       </c>
       <c r="F35" s="4">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>37</v>
@@ -1749,150 +1770,38 @@
         <v>41</v>
       </c>
       <c r="F36" s="4">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="4">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15" thickBot="1">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="4">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="4">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="4">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="4">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="4">
-        <v>45188</v>
-      </c>
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C37" s="6"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C39" s="6"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C40" s="6"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C42" s="6"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C43" s="6"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C44" s="6"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C45" s="6"/>
+      <c r="F45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -1909,12 +1818,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2014,7 +1923,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2025,7 +1934,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -2039,7 +1948,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -2070,16 +1979,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2106,7 +2015,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2118,12 +2027,12 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2135,7 +2044,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2152,7 +2061,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2169,7 +2078,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2177,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -2186,7 +2095,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2272,15 +2181,15 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -2294,10 +2203,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -2318,23 +2227,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C689EB-A68B-4BC4-B6BF-F1BC87CF5393}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2354,15 +2263,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>39</v>
@@ -2376,13 +2285,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2393,13 +2302,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -2407,13 +2316,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -2421,13 +2330,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2435,13 +2344,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -2449,13 +2358,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -2463,99 +2372,373 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45188</v>
+      </c>
+    </row>
     <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="F18" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
+      <c r="C36" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\Documents\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154D528-F17C-44E4-9C7B-86EC1AA5AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5C5AE-584F-4AF6-8B85-0C14FC404B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="14040" windowHeight="13635" tabRatio="731" firstSheet="2" activeTab="4" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="90" yWindow="1470" windowWidth="12375" windowHeight="11385" tabRatio="731" firstSheet="1" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1436,7 +1436,7 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4">
         <v>45188</v>
@@ -1456,7 +1456,7 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="4">
         <v>45188</v>
@@ -1476,7 +1476,7 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="4">
         <v>45188</v>
@@ -1496,7 +1496,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4">
         <v>45188</v>
@@ -1576,7 +1576,7 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="4">
         <v>45188</v>
@@ -1596,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4">
         <v>45195</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4">
         <v>45195</v>
@@ -2229,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C689EB-A68B-4BC4-B6BF-F1BC87CF5393}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5C5AE-584F-4AF6-8B85-0C14FC404B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7AC42-034F-462B-B1CE-A7114913EA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1470" windowWidth="12375" windowHeight="11385" tabRatio="731" firstSheet="1" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" firstSheet="1" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="134">
   <si>
     <t>Footsteps</t>
   </si>
@@ -302,15 +302,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Design a Resource Room</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Design a Save Room</t>
-  </si>
-  <si>
     <t xml:space="preserve">Area 1 minimap </t>
   </si>
   <si>
@@ -472,9 +463,6 @@
   </si>
   <si>
     <t>Find &amp; Import pack</t>
-  </si>
-  <si>
-    <t>Transferred to Our Artist</t>
   </si>
   <si>
     <t>Player UI/ Looks</t>
@@ -996,10 +984,10 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1010,12 +998,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1034,7 @@
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1160,19 +1148,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1212,12 +1200,12 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>37</v>
@@ -1232,7 +1220,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1252,7 +1240,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1272,7 +1260,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1292,7 +1280,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1300,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1320,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1398,16 +1386,16 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>37</v>
@@ -1422,12 +1410,12 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
@@ -1442,12 +1430,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>37</v>
@@ -1462,12 +1450,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>37</v>
@@ -1482,12 +1470,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>37</v>
@@ -1502,12 +1490,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>37</v>
@@ -1522,18 +1510,18 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -1547,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -1562,12 +1550,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1582,12 +1570,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>37</v>
@@ -1602,12 +1590,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>37</v>
@@ -1622,12 +1610,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>37</v>
@@ -1642,19 +1630,19 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
@@ -1669,15 +1657,15 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>37</v>
@@ -1693,12 +1681,12 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -1713,12 +1701,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>37</v>
@@ -1733,12 +1721,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>37</v>
@@ -1753,12 +1741,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>37</v>
@@ -1773,33 +1761,33 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="C37" s="6"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="C39" s="6"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="C40" s="6"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="C42" s="6"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="C43" s="6"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="C44" s="6"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="C45" s="6"/>
       <c r="F45" s="4"/>
     </row>
@@ -1818,12 +1806,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1923,7 +1911,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1934,7 +1922,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -1948,7 +1936,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -1977,18 +1965,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2015,7 +2003,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2027,12 +2015,12 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2044,7 +2032,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2061,7 +2049,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2078,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2086,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -2095,7 +2083,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2140,82 +2128,43 @@
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
+      <c r="E17" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2233,17 +2182,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2263,15 +2212,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>39</v>
@@ -2285,13 +2234,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2302,13 +2251,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -2316,13 +2265,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -2330,13 +2279,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2344,13 +2293,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -2358,13 +2307,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -2372,13 +2321,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -2386,13 +2335,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2408,10 +2357,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -2428,10 +2377,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -2448,10 +2397,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -2468,10 +2417,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
@@ -2488,10 +2437,10 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -2508,10 +2457,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -2530,10 +2479,10 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
@@ -2550,10 +2499,10 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -2567,10 +2516,10 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -2587,10 +2536,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -2607,10 +2556,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -2627,10 +2576,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -2647,10 +2596,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -2661,26 +2610,26 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2688,57 +2637,57 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB7AC42-034F-462B-B1CE-A7114913EA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B85A9-C75E-4489-A7F9-B3EF15F0CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" firstSheet="1" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="131">
   <si>
     <t>Footsteps</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Area 4 minimap</t>
   </si>
   <si>
-    <t>Area 5 minimap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Area 2 </t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t>Area 4 skeleton</t>
   </si>
   <si>
-    <t>Area 5 skeleton</t>
-  </si>
-  <si>
     <t>Fix sticking to walls (ground check need to be changed.)</t>
   </si>
   <si>
@@ -493,9 +487,6 @@
   </si>
   <si>
     <t xml:space="preserve">Area 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area 5 </t>
   </si>
   <si>
     <t xml:space="preserve">Crates (breakable tiles but respawn when player leave room) </t>
@@ -980,14 +971,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -998,12 +989,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1025,7 @@
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1148,19 +1139,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1180,7 +1171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1200,7 +1191,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1220,7 +1211,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1231,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1251,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1280,7 +1271,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1291,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1311,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1386,11 +1377,11 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +1401,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1430,7 +1421,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1444,13 +1435,13 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1464,33 +1455,17 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4">
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="4">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C20" s="6"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1510,7 +1485,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1496,7 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
@@ -1535,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>37</v>
@@ -1550,12 +1525,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1570,12 +1545,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>37</v>
@@ -1590,12 +1565,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>37</v>
@@ -1610,39 +1585,23 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="4">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C27" s="6"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
@@ -1657,15 +1616,15 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>37</v>
@@ -1681,12 +1640,12 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -1695,18 +1654,18 @@
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="4">
         <v>45200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>37</v>
@@ -1715,18 +1674,18 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" s="4">
         <v>45200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>37</v>
@@ -1735,59 +1694,43 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="4">
         <v>45200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="4">
-        <v>45200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C36" s="6"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="C37" s="6"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
       <c r="C39" s="6"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="C40" s="6"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="C42" s="6"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="C43" s="6"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="C44" s="6"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="C45" s="6"/>
       <c r="F45" s="4"/>
     </row>
@@ -1806,12 +1749,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1911,7 +1854,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1922,7 +1865,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -1936,7 +1879,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -1967,16 +1910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2003,7 +1946,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2015,12 +1958,12 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2032,7 +1975,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2049,7 +1992,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2066,7 +2009,7 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2074,7 +2017,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -2083,7 +2026,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2130,15 +2073,15 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -2147,15 +2090,15 @@
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
         <v>120</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
@@ -2164,7 +2107,7 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2179,20 +2122,20 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2212,15 +2155,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>39</v>
@@ -2234,13 +2177,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2251,13 +2194,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -2265,13 +2208,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -2279,13 +2222,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -2293,13 +2236,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -2307,13 +2250,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -2321,13 +2264,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -2335,13 +2278,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2357,10 +2300,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -2377,10 +2320,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -2397,10 +2340,10 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -2417,10 +2360,10 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
@@ -2437,10 +2380,10 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -2457,10 +2400,10 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -2479,10 +2422,10 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
@@ -2499,10 +2442,10 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -2516,10 +2459,10 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -2536,10 +2479,10 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -2556,10 +2499,10 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -2576,10 +2519,10 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -2596,10 +2539,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -2609,27 +2552,36 @@
       </c>
     </row>
     <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>103</v>
       </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2637,57 +2589,57 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9B85A9-C75E-4489-A7F9-B3EF15F0CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D8F85-8148-40CE-B6CD-16233BDDB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="137">
   <si>
     <t>Footsteps</t>
   </si>
@@ -490,6 +490,24 @@
   </si>
   <si>
     <t xml:space="preserve">Crates (breakable tiles but respawn when player leave room) </t>
+  </si>
+  <si>
+    <t>Create a Control Panel</t>
+  </si>
+  <si>
+    <t>Game Assets</t>
+  </si>
+  <si>
+    <t>Health pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find &amp; import a placeholder </t>
+  </si>
+  <si>
+    <t>Traps</t>
+  </si>
+  <si>
+    <t>Key Card</t>
   </si>
 </sst>
 </file>
@@ -971,14 +989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -989,12 +1007,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1139,19 +1157,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1329,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1377,11 +1395,11 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1461,11 +1479,11 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="C20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1503,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1525,7 +1543,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1585,18 +1603,18 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="C27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1616,10 +1634,10 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1658,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1698,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1700,37 +1718,37 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="C36" s="6"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="C37" s="6"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15" thickBot="1"/>
+    <row r="39" spans="1:6" ht="15" thickBot="1">
       <c r="C39" s="6"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="C40" s="6"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1"/>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="C42" s="6"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="C43" s="6"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="C44" s="6"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="C45" s="6"/>
       <c r="F45" s="4"/>
     </row>
@@ -1749,12 +1767,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1908,18 +1926,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2029,34 +2047,34 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -2069,19 +2087,50 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>117</v>
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
@@ -2095,10 +2144,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
@@ -2107,6 +2156,45 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2121,21 +2209,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C689EB-A68B-4BC4-B6BF-F1BC87CF5393}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>91</v>
       </c>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D8F85-8148-40CE-B6CD-16233BDDB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41701FD-642B-40B5-AF6C-45274729681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="153">
   <si>
     <t>Footsteps</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>Level Background</t>
-  </si>
-  <si>
     <t>Player Interaction</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
   </si>
   <si>
     <t>Button Sound</t>
-  </si>
-  <si>
-    <t>Draft Done</t>
   </si>
   <si>
     <t>N/A</t>
@@ -508,6 +502,60 @@
   </si>
   <si>
     <t>Key Card</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Level 1 Music</t>
+  </si>
+  <si>
+    <t>Level 2 Music</t>
+  </si>
+  <si>
+    <t>Level 3 Music</t>
+  </si>
+  <si>
+    <t>Level 4 Music</t>
+  </si>
+  <si>
+    <t>Beta Results</t>
+  </si>
+  <si>
+    <t>Dark Synthwave Music</t>
+  </si>
+  <si>
+    <t>Respawn noise</t>
+  </si>
+  <si>
+    <t>Adjustment of footsetps being too loud</t>
+  </si>
+  <si>
+    <t>Fix switch noise(too loud)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sep 8th</t>
+  </si>
+  <si>
+    <t>Sept 8th</t>
+  </si>
+  <si>
+    <t>Sept 12th</t>
+  </si>
+  <si>
+    <t>Sept 24th</t>
+  </si>
+  <si>
+    <t>Sept 26th</t>
+  </si>
+  <si>
+    <t>Sept 18th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 15th </t>
   </si>
 </sst>
 </file>
@@ -987,163 +1035,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5">
       <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1161,49 +1333,49 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="14">
         <v>45033</v>
@@ -1211,19 +1383,19 @@
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="14">
         <v>44998</v>
@@ -1231,19 +1403,19 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="14">
         <v>44990</v>
@@ -1251,19 +1423,19 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F5" s="14">
         <v>44991</v>
@@ -1271,19 +1443,19 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="14">
         <v>45033</v>
@@ -1291,19 +1463,19 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="14">
         <v>45010</v>
@@ -1311,19 +1483,19 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="14">
         <v>44995</v>
@@ -1331,19 +1503,19 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="14">
         <v>44996</v>
@@ -1351,19 +1523,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="F10" s="15">
         <v>45180</v>
@@ -1371,19 +1543,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="15">
         <v>45182</v>
@@ -1401,19 +1573,19 @@
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
       </c>
       <c r="F16" s="4">
         <v>45184</v>
@@ -1421,19 +1593,19 @@
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
       </c>
       <c r="F17" s="4">
         <v>45188</v>
@@ -1441,19 +1613,19 @@
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
       </c>
       <c r="F18" s="4">
         <v>45188</v>
@@ -1461,19 +1633,19 @@
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
       </c>
       <c r="F19" s="4">
         <v>45188</v>
@@ -1485,19 +1657,19 @@
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
         <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
       </c>
       <c r="F21" s="4">
         <v>45183</v>
@@ -1505,19 +1677,19 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4">
         <v>45192</v>
@@ -1525,19 +1697,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
         <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
       </c>
       <c r="F23" s="4">
         <v>45188</v>
@@ -1545,19 +1717,19 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4">
         <v>45188</v>
@@ -1565,19 +1737,19 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4">
         <v>45195</v>
@@ -1585,19 +1757,19 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="4">
         <v>45195</v>
@@ -1616,19 +1788,19 @@
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="4">
         <v>45180</v>
@@ -1639,19 +1811,19 @@
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
         <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
       </c>
       <c r="F32" s="4">
         <v>45200</v>
@@ -1660,19 +1832,19 @@
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
         <v>39</v>
-      </c>
-      <c r="E33" t="s">
-        <v>40</v>
       </c>
       <c r="F33" s="4">
         <v>45200</v>
@@ -1680,19 +1852,19 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="4">
         <v>45200</v>
@@ -1700,19 +1872,19 @@
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="4">
         <v>45200</v>
@@ -1767,48 +1939,48 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="4">
         <v>45199</v>
@@ -1816,13 +1988,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
       </c>
       <c r="F4" s="4">
         <v>45192</v>
@@ -1830,13 +2002,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
         <v>45201</v>
@@ -1844,13 +2016,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="9">
         <v>45194</v>
@@ -1858,13 +2030,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9">
         <v>45201</v>
@@ -1872,18 +2044,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" s="4">
         <v>45181</v>
@@ -1891,13 +2063,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="4">
         <v>45181</v>
@@ -1905,13 +2077,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="9">
         <v>45201</v>
@@ -1928,274 +2100,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
       <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" t="s">
-        <v>120</v>
-      </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2213,51 +2385,51 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="54.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="14">
         <v>45033</v>
@@ -2265,117 +2437,117 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2385,19 +2557,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
       <c r="F12" s="4">
         <v>45188</v>
@@ -2405,19 +2577,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4">
         <v>45188</v>
@@ -2425,19 +2597,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4">
         <v>45195</v>
@@ -2445,19 +2617,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4">
         <v>45195</v>
@@ -2465,19 +2637,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4">
         <v>45195</v>
@@ -2485,19 +2657,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2507,19 +2679,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
       </c>
       <c r="F19" s="4">
         <v>44995</v>
@@ -2527,36 +2699,36 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
         <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="4">
         <v>45188</v>
@@ -2564,19 +2736,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4">
         <v>45195</v>
@@ -2584,19 +2756,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="4">
         <v>45188</v>
@@ -2604,19 +2776,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4">
         <v>45188</v>
@@ -2624,52 +2796,52 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2677,57 +2849,57 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41701FD-642B-40B5-AF6C-45274729681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4222AB71-0862-4B38-9261-BB884A8285D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="169">
   <si>
     <t>Footsteps</t>
   </si>
@@ -556,6 +556,54 @@
   </si>
   <si>
     <t xml:space="preserve">Nov 15th </t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Parallax Effect</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Import into area 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Test it</t>
+  </si>
+  <si>
+    <t>Beta Test Feedback</t>
+  </si>
+  <si>
+    <t>Mini-map</t>
+  </si>
+  <si>
+    <t>Player Location indicator</t>
+  </si>
+  <si>
+    <t>Player UI</t>
+  </si>
+  <si>
+    <t>Indicator for Key Items/ Objects</t>
+  </si>
+  <si>
+    <t>key/item management</t>
+  </si>
+  <si>
+    <t>Death Screen</t>
+  </si>
+  <si>
+    <t>Animate It (optinal)</t>
+  </si>
+  <si>
+    <t>Disable/ Fix Area 5 Map Key</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Sprint not Listed in Controls</t>
   </si>
 </sst>
 </file>
@@ -1037,14 +1085,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1058,12 +1106,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5">
+    <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5">
+    <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1149,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -1333,12 +1381,12 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
@@ -1939,12 +1987,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2098,17 +2146,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2368,6 +2416,152 @@
       </c>
       <c r="E21" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2385,14 +2579,14 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="54.90625" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4222AB71-0862-4B38-9261-BB884A8285D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A907B3-2AD6-429C-A083-58E00B37D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="192">
   <si>
     <t>Footsteps</t>
   </si>
@@ -605,12 +605,101 @@
   <si>
     <t>Sprint not Listed in Controls</t>
   </si>
+  <si>
+    <t>Platform variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (moving, falling, etc.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch objects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a visual change when interacted with </t>
+  </si>
+  <si>
+    <t>explaining how to interact with the area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial </t>
+  </si>
+  <si>
+    <t>Map design</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that differentiates each level.</t>
+  </si>
+  <si>
+    <t>More objects in the level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add some indicatory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the player direction. </t>
+  </si>
+  <si>
+    <t>Losing abilities after dying</t>
+  </si>
+  <si>
+    <t>(also fix sfx playing for ablility)</t>
+  </si>
+  <si>
+    <t>Getting stuck</t>
+  </si>
+  <si>
+    <t> in a wall or platform randomly</t>
+  </si>
+  <si>
+    <t>Some walls would not load in correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bypassing a large portion of the game. </t>
+  </si>
+  <si>
+    <t>Being able to grab items that you shouldn’t be able to</t>
+  </si>
+  <si>
+    <t>create a dead-end (need to be fixed)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inprovments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>More obstacles</t>
+  </si>
+  <si>
+    <t>Color change on interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health meter flashing with hit </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +769,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -727,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,6 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,10 +1185,10 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1106,12 +1202,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1375,21 +1471,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1525,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1449,7 +1545,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1469,7 +1565,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1489,7 +1585,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1509,7 +1605,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1529,7 +1625,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1549,7 +1645,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1615,11 +1711,11 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1639,7 +1735,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1659,7 +1755,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1679,7 +1775,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1699,11 +1795,11 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="C20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1723,7 +1819,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1859,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1783,7 +1879,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1803,7 +1899,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1823,18 +1919,18 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="C27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1854,10 +1950,10 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +1974,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1898,7 +1994,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1918,7 +2014,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -1938,39 +2034,242 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="C36" s="6"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="C37" s="6"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1"/>
-    <row r="39" spans="1:6" ht="15" thickBot="1">
-      <c r="C39" s="6"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
-      <c r="C40" s="6"/>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1"/>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
-      <c r="C42" s="6"/>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
-      <c r="C43" s="6"/>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>40</v>
+      </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
-      <c r="C44" s="6"/>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
-      <c r="C45" s="6"/>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
       <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A51" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A53" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -1987,12 +2286,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2148,16 +2447,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2579,17 +2878,17 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2609,7 +2908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" t="s">
         <v>89</v>
       </c>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A907B3-2AD6-429C-A083-58E00B37D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBFF94B-755A-48A5-AAC0-834B8293F8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="192">
   <si>
     <t>Footsteps</t>
   </si>
@@ -1181,14 +1181,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1202,12 +1202,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.5">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -1442,6 +1442,9 @@
       <c r="A33" t="s">
         <v>142</v>
       </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
       <c r="C33" t="s">
         <v>152</v>
       </c>
@@ -1457,6 +1460,9 @@
     <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
       </c>
       <c r="C35" t="s">
         <v>152</v>
@@ -1473,19 +1479,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1711,11 +1717,11 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1795,11 +1801,11 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="C20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1919,18 +1925,18 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="C27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1950,10 +1956,10 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1974,7 +1980,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2034,11 +2040,11 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="C36" s="6"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="C37" s="6"/>
       <c r="F37" s="4"/>
     </row>
@@ -2065,7 +2071,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -2083,7 +2089,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -2133,7 +2139,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -2151,7 +2157,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -2169,7 +2175,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+    <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+    <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -2220,16 +2226,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="15" thickBot="1">
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="15" thickBot="1">
       <c r="A50" t="s">
         <v>188</v>
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+    <row r="51" spans="1:5" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>189</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+    <row r="52" spans="1:5" ht="15" thickBot="1">
       <c r="A52" t="s">
         <v>190</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+    <row r="53" spans="1:5" ht="15" thickBot="1">
       <c r="A53" s="17" t="s">
         <v>191</v>
       </c>
@@ -2286,12 +2292,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2451,12 +2457,12 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2878,17 +2884,17 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="54.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>89</v>
       </c>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBFF94B-755A-48A5-AAC0-834B8293F8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E79F4-DEAD-4356-AD70-7F2C2E596CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="217">
   <si>
     <t>Footsteps</t>
   </si>
@@ -181,43 +181,11 @@
     <t>Med</t>
   </si>
   <si>
-    <t>Running Animation</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Platform Art</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Game Art</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Menu Escape</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Volume</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Medium</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Not Started</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Tutorial Drawings</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Low</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -255,15 +223,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Enemy Art</t>
-  </si>
-  <si>
-    <t>Outermost Background</t>
-  </si>
-  <si>
-    <t>Fullscreen toggle</t>
   </si>
   <si>
     <t>Medium</t>
@@ -693,6 +652,114 @@
   </si>
   <si>
     <t xml:space="preserve">Health meter flashing with hit </t>
+  </si>
+  <si>
+    <t>Running Animation</t>
+  </si>
+  <si>
+    <t>Animations (Player)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumping Animation </t>
+  </si>
+  <si>
+    <t>Shooting Animation</t>
+  </si>
+  <si>
+    <t>Slicing Animation</t>
+  </si>
+  <si>
+    <t>Walking Animation</t>
+  </si>
+  <si>
+    <t>Animations (Enemy)</t>
+  </si>
+  <si>
+    <t>Walker Walk</t>
+  </si>
+  <si>
+    <t>Walker Slice</t>
+  </si>
+  <si>
+    <t>Scout Fly</t>
+  </si>
+  <si>
+    <t>Sprites (Enemy)</t>
+  </si>
+  <si>
+    <t>Idle Animation</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Sprites (Player)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta-14 (multi color) </t>
+  </si>
+  <si>
+    <t>Background Art</t>
+  </si>
+  <si>
+    <t>Area 1 Outside</t>
+  </si>
+  <si>
+    <t>Area 1 Inside</t>
+  </si>
+  <si>
+    <t>Area 2 Outside</t>
+  </si>
+  <si>
+    <t>Area 2 Inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 3 Outside </t>
+  </si>
+  <si>
+    <t>Area 3 Inside</t>
+  </si>
+  <si>
+    <t>Area 4 Outside</t>
+  </si>
+  <si>
+    <t>Area 4 Inside</t>
+  </si>
+  <si>
+    <t>Cutscene Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escape </t>
+  </si>
+  <si>
+    <t>Platform Art</t>
+  </si>
+  <si>
+    <t>Platform Rotted</t>
+  </si>
+  <si>
+    <t>Platform New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Documents </t>
+  </si>
+  <si>
+    <t>Updated GDD</t>
+  </si>
+  <si>
+    <t>Updated 1 pager</t>
+  </si>
+  <si>
+    <t>Updated 10 pager</t>
+  </si>
+  <si>
+    <t>Feedback Results</t>
   </si>
 </sst>
 </file>
@@ -1181,14 +1248,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1199,15 +1266,15 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1217,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1228,10 +1295,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1239,21 +1306,21 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1261,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1272,10 +1339,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1288,10 +1355,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1299,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1310,10 +1377,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1321,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1332,10 +1399,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1343,10 +1410,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1359,113 +1426,113 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
         <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1483,15 +1550,15 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="38.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1531,12 +1598,12 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>36</v>
@@ -1551,7 +1618,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1571,7 +1638,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1591,7 +1658,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1611,7 +1678,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1631,7 +1698,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1651,7 +1718,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1673,10 +1740,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>36</v>
@@ -1693,10 +1760,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1717,16 +1784,16 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
@@ -1741,12 +1808,12 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -1761,12 +1828,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>36</v>
@@ -1781,12 +1848,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
@@ -1801,16 +1868,16 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="C20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>36</v>
@@ -1825,18 +1892,18 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -1850,7 +1917,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>36</v>
@@ -1865,12 +1932,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -1885,12 +1952,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
@@ -1905,12 +1972,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -1925,23 +1992,23 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="C27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
@@ -1956,15 +2023,15 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>36</v>
@@ -1980,12 +2047,12 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -2000,12 +2067,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>36</v>
@@ -2020,12 +2087,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>36</v>
@@ -2040,25 +2107,25 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="C36" s="6"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="C37" s="6"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>36</v>
@@ -2071,12 +2138,12 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -2089,12 +2156,12 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>36</v>
@@ -2106,12 +2173,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>36</v>
@@ -2126,7 +2193,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>36</v>
@@ -2139,12 +2206,12 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -2157,12 +2224,12 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>36</v>
@@ -2175,12 +2242,12 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>36</v>
@@ -2194,10 +2261,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>36</v>
@@ -2209,12 +2276,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -2226,18 +2293,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
       <c r="A51" s="17" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>36</v>
@@ -2249,9 +2316,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>36</v>
@@ -2263,9 +2330,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1">
       <c r="A53" s="17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>36</v>
@@ -2286,18 +2353,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2322,130 +2389,462 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4">
-        <v>45199</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F4" s="4">
         <v>45192</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="9">
-        <v>45194</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45201</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>89</v>
+      <c r="B11" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F12" s="4">
-        <v>45181</v>
+        <v>45199</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F13" s="4">
-        <v>45181</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="4">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="4">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="9">
-        <v>45201</v>
+      <c r="F37" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="4">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="4">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="4">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="4">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45244</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2457,12 +2856,12 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2489,36 +2888,36 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2529,13 +2928,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2546,13 +2945,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2560,16 +2959,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2577,296 +2976,296 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2884,17 +3283,17 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2914,15 +3313,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>38</v>
@@ -2936,13 +3335,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -2953,13 +3352,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -2967,13 +3366,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -2981,13 +3380,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -2995,13 +3394,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -3009,13 +3408,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -3023,13 +3422,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -3037,13 +3436,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -3059,10 +3458,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -3079,10 +3478,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -3099,10 +3498,10 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -3119,10 +3518,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -3139,10 +3538,10 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -3159,10 +3558,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -3181,10 +3580,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -3201,10 +3600,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -3218,10 +3617,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -3238,10 +3637,10 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -3258,10 +3657,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -3278,10 +3677,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -3298,10 +3697,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -3315,10 +3714,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3326,10 +3725,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3337,10 +3736,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3348,57 +3747,57 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonkb\Documents\GitHub\Anachronism-Entertainment\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E79F4-DEAD-4356-AD70-7F2C2E596CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F275274-D411-4BBC-9768-8CA5120F8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="2" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="218">
   <si>
     <t>Footsteps</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>Feedback Results</t>
+  </si>
+  <si>
+    <t>11/x/2023</t>
   </si>
 </sst>
 </file>
@@ -889,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,6 +935,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2134,9 +2143,11 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="A40" t="s">
@@ -2152,9 +2163,11 @@
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" t="s">
@@ -2170,7 +2183,10 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1">
@@ -2187,9 +2203,11 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -2202,9 +2220,11 @@
         <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" t="s">
@@ -2220,9 +2240,11 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" t="s">
@@ -2238,9 +2260,11 @@
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1">
       <c r="A46" t="s">
@@ -2256,7 +2280,10 @@
         <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2273,7 +2300,10 @@
         <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1">
@@ -2290,19 +2320,22 @@
         <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+        <v>41</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1">
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1">
       <c r="A50" t="s">
         <v>177</v>
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+    <row r="51" spans="1:6" ht="15.75" thickBot="1">
       <c r="A51" s="17" t="s">
         <v>178</v>
       </c>
@@ -2315,8 +2348,11 @@
       <c r="E51" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+      <c r="F51" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1">
       <c r="A52" t="s">
         <v>179</v>
       </c>
@@ -2327,10 +2363,13 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+        <v>39</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1">
       <c r="A53" s="17" t="s">
         <v>180</v>
       </c>
@@ -2342,6 +2381,9 @@
       </c>
       <c r="E53" t="s">
         <v>40</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35965238-89E8-4AC6-982E-FD30A85DBAA4}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jjyoy\Documents\GitHubRepo\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F275274-D411-4BBC-9768-8CA5120F8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC038B-36A9-4749-9FED-9B93F9E61043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="1" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t>Enemy AI</t>
   </si>
   <si>
-    <t>Abilities(Dash, Double Jump, Magnetic Grab, Claw Grip, Water Pump)</t>
-  </si>
-  <si>
     <t>Finished</t>
   </si>
   <si>
@@ -763,6 +760,9 @@
   </si>
   <si>
     <t>11/x/2023</t>
+  </si>
+  <si>
+    <t>Abilities(Dash, Energy Blaster, Grapplehook)</t>
   </si>
 </sst>
 </file>
@@ -1255,16 +1255,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1275,15 +1275,15 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1304,10 +1304,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1315,21 +1315,21 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1435,54 +1435,54 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1495,53 +1495,48 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>130</v>
       </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1555,19 +1550,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0CBB7-90BA-4370-8BA1-B84CEA81385B}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +1602,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -1627,7 +1622,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -1647,7 +1642,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1">
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1667,7 +1662,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1687,7 +1682,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +1702,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1">
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1727,7 +1722,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1793,11 +1788,11 @@
     <row r="13" spans="1:6">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+    <row r="14" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1817,7 +1812,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1837,7 +1832,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1877,11 +1872,11 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="C20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1901,7 +1896,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15" thickBot="1">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1926,7 +1921,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>36</v>
@@ -1941,12 +1936,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15" thickBot="1">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -1961,12 +1956,12 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
@@ -1981,12 +1976,12 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -2001,18 +1996,18 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="C27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="B29" s="11"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2032,15 +2027,15 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>36</v>
@@ -2056,7 +2051,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+    <row r="33" spans="1:6" ht="15" thickBot="1">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2076,12 +2071,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15" thickBot="1">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>36</v>
@@ -2096,12 +2091,12 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15" thickBot="1">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>36</v>
@@ -2116,25 +2111,25 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15" thickBot="1">
       <c r="C36" s="6"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1">
+    <row r="37" spans="1:6" ht="15" thickBot="1">
       <c r="C37" s="6"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
         <v>158</v>
-      </c>
-      <c r="B39" t="s">
-        <v>159</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>36</v>
@@ -2146,15 +2141,15 @@
         <v>41</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
         <v>160</v>
-      </c>
-      <c r="B40" t="s">
-        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -2166,15 +2161,15 @@
         <v>39</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>36</v>
@@ -2186,15 +2181,15 @@
         <v>41</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" t="s">
         <v>164</v>
-      </c>
-      <c r="B42" t="s">
-        <v>165</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>36</v>
@@ -2206,12 +2201,12 @@
         <v>41</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>36</v>
@@ -2223,15 +2218,15 @@
         <v>41</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
         <v>167</v>
-      </c>
-      <c r="B44" t="s">
-        <v>168</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -2243,15 +2238,15 @@
         <v>41</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" t="s">
         <v>169</v>
-      </c>
-      <c r="B45" t="s">
-        <v>170</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>36</v>
@@ -2263,15 +2258,15 @@
         <v>41</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" t="s">
         <v>171</v>
-      </c>
-      <c r="B46" t="s">
-        <v>172</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>36</v>
@@ -2283,15 +2278,15 @@
         <v>41</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>36</v>
@@ -2303,15 +2298,15 @@
         <v>41</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -2323,21 +2318,21 @@
         <v>41</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1">
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1">
+    <row r="50" spans="1:6" ht="15" thickBot="1">
       <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1">
+      <c r="A51" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A51" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>36</v>
@@ -2349,12 +2344,12 @@
         <v>40</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>36</v>
@@ -2366,12 +2361,12 @@
         <v>39</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1">
       <c r="A53" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>36</v>
@@ -2383,7 +2378,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2401,12 +2396,12 @@
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2439,7 +2434,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="4">
         <v>45192</v>
@@ -2453,18 +2448,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="4">
         <v>45199</v>
@@ -2472,13 +2467,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="4">
         <v>45212</v>
@@ -2486,13 +2481,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4">
         <v>45212</v>
@@ -2500,13 +2495,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="4">
         <v>45212</v>
@@ -2514,13 +2509,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="4">
         <v>45199</v>
@@ -2528,13 +2523,13 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="4">
         <v>45199</v>
@@ -2542,18 +2537,18 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="4">
         <v>45203</v>
@@ -2561,13 +2556,13 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="4">
         <v>45203</v>
@@ -2575,13 +2570,13 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" s="4">
         <v>45224</v>
@@ -2589,18 +2584,18 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="4">
         <v>45194</v>
@@ -2608,13 +2603,13 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" s="4">
         <v>45194</v>
@@ -2622,13 +2617,13 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" s="4">
         <v>45217</v>
@@ -2636,18 +2631,18 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="4">
         <v>45184</v>
@@ -2655,18 +2650,18 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="4">
         <v>45217</v>
@@ -2674,13 +2669,13 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="4">
         <v>45217</v>
@@ -2688,13 +2683,13 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" s="4">
         <v>45217</v>
@@ -2702,13 +2697,13 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="4">
         <v>45217</v>
@@ -2716,7 +2711,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
         <v>51</v>
@@ -2730,7 +2725,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
         <v>51</v>
@@ -2744,7 +2739,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
         <v>51</v>
@@ -2758,7 +2753,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
         <v>51</v>
@@ -2772,12 +2767,12 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" t="s">
         <v>60</v>
@@ -2791,18 +2786,18 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="4">
         <v>45199</v>
@@ -2810,13 +2805,13 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" s="4">
         <v>45199</v>
@@ -2824,18 +2819,18 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F49" s="4">
         <v>45259</v>
@@ -2843,13 +2838,13 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
         <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F50" s="4">
         <v>45259</v>
@@ -2857,13 +2852,13 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F51" s="4">
         <v>45259</v>
@@ -2871,13 +2866,13 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F52" s="4">
         <v>45244</v>
@@ -2898,12 +2893,12 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2930,7 +2925,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -2942,12 +2937,12 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -2959,7 +2954,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2976,7 +2971,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2993,7 +2988,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3001,7 +2996,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -3010,7 +3005,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3018,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -3027,7 +3022,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3071,15 +3066,15 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -3088,15 +3083,15 @@
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -3105,15 +3100,15 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -3122,20 +3117,20 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -3144,15 +3139,15 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
         <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -3161,20 +3156,20 @@
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -3183,15 +3178,15 @@
         <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
         <v>144</v>
-      </c>
-      <c r="B25" t="s">
-        <v>145</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
@@ -3200,20 +3195,20 @@
         <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
         <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
       </c>
       <c r="C28" t="s">
         <v>45</v>
@@ -3227,10 +3222,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -3244,10 +3239,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -3261,10 +3256,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" t="s">
         <v>153</v>
-      </c>
-      <c r="B31" t="s">
-        <v>154</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -3281,7 +3276,7 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -3295,10 +3290,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
         <v>156</v>
-      </c>
-      <c r="B33" t="s">
-        <v>157</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -3325,17 +3320,17 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="54.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3355,7 +3350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -3481,7 +3476,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -3659,7 +3654,7 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F4TaL\Desktop\School Semesters\Fall 2023\489GIT\Total-Let-Down-Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC038B-36A9-4749-9FED-9B93F9E61043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4192D6EB-02B3-4332-AD86-E1931162394D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="731" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
   <sheets>
     <sheet name="Marcus Queiro(Sound Effects)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="219">
   <si>
     <t>Footsteps</t>
   </si>
@@ -237,21 +237,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>VFX</t>
-  </si>
-  <si>
-    <t>Particle Effect</t>
-  </si>
-  <si>
-    <t>Shader/ Particle Effect</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Lava Pool/ Shader</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -476,9 +461,6 @@
   </si>
   <si>
     <t>Beta Results</t>
-  </si>
-  <si>
-    <t>Dark Synthwave Music</t>
   </si>
   <si>
     <t>Respawn noise</t>
@@ -763,6 +745,27 @@
   </si>
   <si>
     <t>Abilities(Dash, Energy Blaster, Grapplehook)</t>
+  </si>
+  <si>
+    <t>Update Improve Minimap</t>
+  </si>
+  <si>
+    <t>Setup death/ respawn screen</t>
+  </si>
+  <si>
+    <t>Import into area 3 &amp; 4</t>
+  </si>
+  <si>
+    <t>fix volume</t>
+  </si>
+  <si>
+    <t>fix quit button</t>
+  </si>
+  <si>
+    <t>fix fullscreen toggle</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -1257,14 +1260,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C1CC92-1BCB-4D56-BC10-E090CE41DC11}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1275,15 +1278,15 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5">
+    <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1304,10 +1307,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1315,21 +1318,21 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.149999999999999" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1337,10 +1340,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1348,10 +1351,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1364,10 +1367,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1375,10 +1378,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1386,10 +1389,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1397,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1408,10 +1411,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1419,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1435,54 +1438,54 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1495,48 +1498,48 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1554,12 +1557,12 @@
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="38.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
@@ -1607,7 +1610,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>36</v>
@@ -1797,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
@@ -1817,7 +1820,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -1837,7 +1840,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>36</v>
@@ -1857,7 +1860,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
@@ -1881,7 +1884,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>36</v>
@@ -1901,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -1921,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>36</v>
@@ -1941,7 +1944,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -1961,7 +1964,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
@@ -1981,7 +1984,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -2012,7 +2015,7 @@
         <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
@@ -2035,7 +2038,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>36</v>
@@ -2056,7 +2059,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -2076,7 +2079,7 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>36</v>
@@ -2096,7 +2099,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>36</v>
@@ -2121,15 +2124,15 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>36</v>
@@ -2141,15 +2144,15 @@
         <v>41</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -2161,15 +2164,15 @@
         <v>39</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>36</v>
@@ -2181,15 +2184,15 @@
         <v>41</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>36</v>
@@ -2201,12 +2204,12 @@
         <v>41</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>36</v>
@@ -2218,15 +2221,15 @@
         <v>41</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -2238,15 +2241,15 @@
         <v>41</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>36</v>
@@ -2258,15 +2261,15 @@
         <v>41</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>36</v>
@@ -2278,15 +2281,15 @@
         <v>41</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>36</v>
@@ -2298,15 +2301,15 @@
         <v>41</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -2318,7 +2321,7 @@
         <v>41</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1">
@@ -2326,13 +2329,13 @@
     </row>
     <row r="50" spans="1:6" ht="15" thickBot="1">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1">
       <c r="A51" s="17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>36</v>
@@ -2344,12 +2347,12 @@
         <v>40</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>36</v>
@@ -2361,12 +2364,12 @@
         <v>39</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1">
       <c r="A53" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>36</v>
@@ -2378,7 +2381,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2396,12 +2399,12 @@
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2434,7 +2437,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F4" s="4">
         <v>45192</v>
@@ -2448,18 +2451,18 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F12" s="4">
         <v>45199</v>
@@ -2467,13 +2470,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F13" s="4">
         <v>45212</v>
@@ -2481,13 +2484,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F14" s="4">
         <v>45212</v>
@@ -2495,13 +2498,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4">
         <v>45212</v>
@@ -2509,13 +2512,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4">
         <v>45199</v>
@@ -2523,13 +2526,13 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4">
         <v>45199</v>
@@ -2537,18 +2540,18 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F19" s="4">
         <v>45203</v>
@@ -2556,13 +2559,13 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F20" s="4">
         <v>45203</v>
@@ -2570,13 +2573,13 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F21" s="4">
         <v>45224</v>
@@ -2584,18 +2587,18 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F24" s="4">
         <v>45194</v>
@@ -2603,13 +2606,13 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F25" s="4">
         <v>45194</v>
@@ -2617,13 +2620,13 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F26" s="4">
         <v>45217</v>
@@ -2631,18 +2634,18 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F29" s="4">
         <v>45184</v>
@@ -2650,18 +2653,18 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F32" s="4">
         <v>45217</v>
@@ -2669,13 +2672,13 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F33" s="4">
         <v>45217</v>
@@ -2683,13 +2686,13 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F34" s="4">
         <v>45217</v>
@@ -2697,13 +2700,13 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F35" s="4">
         <v>45217</v>
@@ -2711,7 +2714,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D36" t="s">
         <v>51</v>
@@ -2725,7 +2728,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
         <v>51</v>
@@ -2739,7 +2742,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s">
         <v>51</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
         <v>51</v>
@@ -2767,15 +2770,15 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
@@ -2786,18 +2789,18 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F45" s="4">
         <v>45199</v>
@@ -2805,13 +2808,13 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F46" s="4">
         <v>45199</v>
@@ -2819,18 +2822,18 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
         <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F49" s="4">
         <v>45259</v>
@@ -2838,13 +2841,13 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
         <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F50" s="4">
         <v>45259</v>
@@ -2852,13 +2855,13 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F51" s="4">
         <v>45259</v>
@@ -2866,13 +2869,13 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F52" s="4">
         <v>45244</v>
@@ -2887,18 +2890,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2925,7 +2928,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -2937,12 +2940,12 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -2954,7 +2957,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2971,7 +2974,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2988,7 +2991,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2996,7 +2999,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -3005,7 +3008,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3013,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -3022,261 +3025,261 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
+      <c r="A10" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
+      <c r="A11" t="s">
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
+      <c r="A12" t="s">
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
+      <c r="A15" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>101</v>
+      <c r="A20" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>141</v>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>101</v>
+      <c r="A24" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
+      <c r="A29" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -3285,24 +3288,92 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3320,14 +3391,14 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
@@ -3352,13 +3423,13 @@
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>38</v>
@@ -3372,13 +3443,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -3389,13 +3460,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -3403,13 +3474,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -3417,13 +3488,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -3431,13 +3502,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -3445,13 +3516,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
@@ -3459,13 +3530,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -3473,13 +3544,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -3495,10 +3566,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
@@ -3515,10 +3586,10 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -3535,10 +3606,10 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -3555,10 +3626,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -3575,10 +3646,10 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
@@ -3595,10 +3666,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -3617,10 +3688,10 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -3637,10 +3708,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
@@ -3654,10 +3725,10 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -3674,10 +3745,10 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -3694,10 +3765,10 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>38</v>
@@ -3714,10 +3785,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
@@ -3734,10 +3805,10 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -3751,10 +3822,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3762,10 +3833,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3773,10 +3844,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3784,57 +3855,57 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/TLG Schedule.xlsx
+++ b/TLG Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Documents\GitHub\Total-Let-Down-Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4192D6EB-02B3-4332-AD86-E1931162394D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F66E4-D932-4C5A-8F3C-8D4A664397DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" activeTab="3" xr2:uid="{A6E805F7-2F73-4FA8-A456-AF61C7F2897D}"/>
   </bookViews>
@@ -2892,8 +2892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28AABDC-3709-43B7-A9D3-19D374AE1A97}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3232,7 +3232,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5">
